--- a/excels/excel-100_relationStatisticsByPercentageSummarized.xlsx
+++ b/excels/excel-100_relationStatisticsByPercentageSummarized.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\36706\Workspaces\viatra-workspace\Structural-Analysis-of-Partial-Models-using-Graph-Metrics\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F604F51-F33B-4B5E-ADDB-3F6C9A1A2583}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44371F6-4FFB-4768-9386-80B42301C9D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -725,37 +725,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -11512,7 +11482,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$R$1</c15:sqref>
@@ -11562,7 +11532,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -11880,7 +11850,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$R$2:$R$102</c15:sqref>
@@ -12197,7 +12167,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000010-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -12210,7 +12180,7 @@
                 <c:order val="17"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$S$1</c15:sqref>
@@ -12260,7 +12230,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -12578,7 +12548,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$S$2:$S$102</c15:sqref>
@@ -12895,7 +12865,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000011-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -12908,7 +12878,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$T$1</c15:sqref>
@@ -12955,7 +12925,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -13273,7 +13243,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$T$2:$T$102</c15:sqref>
@@ -13590,7 +13560,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -13603,7 +13573,7 @@
                 <c:order val="19"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$U$1</c15:sqref>
@@ -13650,7 +13620,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -13968,7 +13938,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$U$2:$U$102</c15:sqref>
@@ -14285,7 +14255,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000013-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -14298,7 +14268,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$V$1</c15:sqref>
@@ -14345,7 +14315,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -14663,7 +14633,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$V$2:$V$102</c15:sqref>
@@ -14980,7 +14950,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000014-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -14993,7 +14963,7 @@
                 <c:order val="21"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$W$1</c15:sqref>
@@ -15040,7 +15010,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -15358,7 +15328,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$W$2:$W$102</c15:sqref>
@@ -15675,7 +15645,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000015-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -15688,7 +15658,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$X$1</c15:sqref>
@@ -15735,7 +15705,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -16053,7 +16023,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$X$2:$X$102</c15:sqref>
@@ -16370,7 +16340,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000016-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -16383,7 +16353,7 @@
                 <c:order val="23"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$Y$1</c15:sqref>
@@ -16430,7 +16400,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -16748,7 +16718,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$Y$2:$Y$102</c15:sqref>
@@ -17065,7 +17035,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000017-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -17078,7 +17048,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$Z$1</c15:sqref>
@@ -17128,7 +17098,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -17446,7 +17416,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$Z$2:$Z$102</c15:sqref>
@@ -17763,7 +17733,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000018-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -17776,7 +17746,7 @@
                 <c:order val="25"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AA$1</c15:sqref>
@@ -17826,7 +17796,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -18144,7 +18114,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AA$2:$AA$102</c15:sqref>
@@ -18461,7 +18431,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000019-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -18474,7 +18444,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AB$1</c15:sqref>
@@ -18524,7 +18494,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -18842,7 +18812,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AB$2:$AB$102</c15:sqref>
@@ -19159,7 +19129,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001A-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -19172,7 +19142,7 @@
                 <c:order val="27"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AC$1</c15:sqref>
@@ -19222,7 +19192,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -19540,7 +19510,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AC$2:$AC$102</c15:sqref>
@@ -19857,7 +19827,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001B-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -19870,7 +19840,7 @@
                 <c:order val="28"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AD$1</c15:sqref>
@@ -19920,7 +19890,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -20238,7 +20208,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AD$2:$AD$102</c15:sqref>
@@ -20555,7 +20525,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001C-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -20568,7 +20538,7 @@
                 <c:order val="29"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AE$1</c15:sqref>
@@ -20618,7 +20588,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -20936,7 +20906,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AE$2:$AE$102</c15:sqref>
@@ -21253,7 +21223,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001D-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -21266,7 +21236,7 @@
                 <c:order val="30"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AF$1</c15:sqref>
@@ -21313,7 +21283,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -21631,7 +21601,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AF$2:$AF$102</c15:sqref>
@@ -21948,7 +21918,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001E-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -21961,7 +21931,7 @@
                 <c:order val="31"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AG$1</c15:sqref>
@@ -22008,7 +21978,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -22326,7 +22296,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AG$2:$AG$102</c15:sqref>
@@ -22643,7 +22613,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000001F-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -22656,7 +22626,7 @@
                 <c:order val="32"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AH$1</c15:sqref>
@@ -22703,7 +22673,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -23021,7 +22991,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AH$2:$AH$102</c15:sqref>
@@ -23338,7 +23308,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000020-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -23351,7 +23321,7 @@
                 <c:order val="33"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AI$1</c15:sqref>
@@ -23398,7 +23368,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -23716,7 +23686,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AI$2:$AI$102</c15:sqref>
@@ -24033,7 +24003,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000021-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -24046,7 +24016,7 @@
                 <c:order val="34"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AJ$1</c15:sqref>
@@ -24093,7 +24063,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -24411,7 +24381,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AJ$2:$AJ$102</c15:sqref>
@@ -24728,7 +24698,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000022-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -24741,7 +24711,7 @@
                 <c:order val="35"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AK$1</c15:sqref>
@@ -24788,7 +24758,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -25106,7 +25076,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AK$2:$AK$102</c15:sqref>
@@ -25423,7 +25393,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000023-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -25436,7 +25406,7 @@
                 <c:order val="36"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AL$1</c15:sqref>
@@ -25486,7 +25456,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -25804,7 +25774,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AL$2:$AL$102</c15:sqref>
@@ -26121,7 +26091,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000024-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -26134,7 +26104,7 @@
                 <c:order val="37"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AM$1</c15:sqref>
@@ -26184,7 +26154,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -26502,7 +26472,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AM$2:$AM$102</c15:sqref>
@@ -26819,7 +26789,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000025-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -26832,7 +26802,7 @@
                 <c:order val="38"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AN$1</c15:sqref>
@@ -26882,7 +26852,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -27200,7 +27170,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AN$2:$AN$102</c15:sqref>
@@ -27517,7 +27487,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000026-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -27530,7 +27500,7 @@
                 <c:order val="39"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AO$1</c15:sqref>
@@ -27580,7 +27550,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -27898,7 +27868,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AO$2:$AO$102</c15:sqref>
@@ -28215,7 +28185,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000027-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -28228,7 +28198,7 @@
                 <c:order val="40"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AP$1</c15:sqref>
@@ -28278,7 +28248,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -28596,7 +28566,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AP$2:$AP$102</c15:sqref>
@@ -28913,7 +28883,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000028-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -28926,7 +28896,7 @@
                 <c:order val="41"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AQ$1</c15:sqref>
@@ -28976,7 +28946,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -29294,7 +29264,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AQ$2:$AQ$102</c15:sqref>
@@ -29611,7 +29581,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000029-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -29624,7 +29594,7 @@
                 <c:order val="42"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AR$1</c15:sqref>
@@ -29671,7 +29641,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -29989,7 +29959,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AR$2:$AR$102</c15:sqref>
@@ -30306,7 +30276,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002A-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -30319,7 +30289,7 @@
                 <c:order val="43"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AS$1</c15:sqref>
@@ -30366,7 +30336,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -30684,7 +30654,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AS$2:$AS$102</c15:sqref>
@@ -31001,7 +30971,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002B-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -31014,7 +30984,7 @@
                 <c:order val="44"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AT$1</c15:sqref>
@@ -31061,7 +31031,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -31379,7 +31349,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AT$2:$AT$102</c15:sqref>
@@ -31696,7 +31666,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002C-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -31709,7 +31679,7 @@
                 <c:order val="45"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AU$1</c15:sqref>
@@ -31756,7 +31726,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -32074,7 +32044,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AU$2:$AU$102</c15:sqref>
@@ -32391,7 +32361,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002D-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -32404,7 +32374,7 @@
                 <c:order val="46"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AV$1</c15:sqref>
@@ -32451,7 +32421,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -32769,7 +32739,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AV$2:$AV$102</c15:sqref>
@@ -33086,7 +33056,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002E-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -33099,7 +33069,7 @@
                 <c:order val="47"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AW$1</c15:sqref>
@@ -33146,7 +33116,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$A$2:$A$102</c15:sqref>
@@ -33464,7 +33434,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'100_relationStatisticsByPercent'!$AW$2:$AW$102</c15:sqref>
@@ -33781,7 +33751,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000002F-BBBF-411E-B8DB-B0CF12A862B0}"/>
                   </c:ext>
@@ -34558,7 +34528,8 @@
     <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -34566,7 +34537,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9291205" cy="6070023"/>
+    <xdr:ext cx="9286875" cy="6057900"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
